--- a/缓存/Redis.xlsx
+++ b/缓存/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8010" activeTab="4"/>
+    <workbookView windowWidth="19935" windowHeight="8010" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,17 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t>项目中缓存是如何使用的？为什么要用缓存？</t>
   </si>
@@ -411,6 +415,351 @@
   </si>
   <si>
     <t>如果上面两个条件都相同，那么选择一个 run id 比较小的那个 slave。</t>
+  </si>
+  <si>
+    <t>redis 持久化的两种方式</t>
+  </si>
+  <si>
+    <t>RDB：RDB 持久化机制，是对 redis 中的数据执行周期性的持久化。</t>
+  </si>
+  <si>
+    <t>AOF：AOF 机制对每条写入命令作为日志，以 append-only 的模式写入一个日志文件中，在 redis 重启的时候，可以通过回放 AOF 日志中的写入指令来重新构建整个数据集。</t>
+  </si>
+  <si>
+    <t>RDB优点</t>
+  </si>
+  <si>
+    <t>RDB 对 redis 对外提供的读写服务，影响非常小</t>
+  </si>
+  <si>
+    <t>RDB 会生成多个数据文件，每个数据文件都代表了某一个时刻中 redis 的数据，这种多个数据文件的方式，非常适合做冷备</t>
+  </si>
+  <si>
+    <t>RDB比AOF恢复快</t>
+  </si>
+  <si>
+    <t>如果想要在 redis 故障时，尽可能少的丢失数据，那么 RDB 没有 AOF 好</t>
+  </si>
+  <si>
+    <t>一般来说，RDB 数据快照文件，都是每隔 5 分钟，或者更长时间生成一次，这个时候就得接受一旦 redis 进程宕机，那么会丢失最近 5 分钟的数据</t>
+  </si>
+  <si>
+    <t>AOF 优缺点</t>
+  </si>
+  <si>
+    <t>AOF 可以更好的保护数据不丢失，一般 AOF 会每隔 1 秒，通过一个后台线程执行一次fsync操作，最多丢失 1 秒钟的数据。</t>
+  </si>
+  <si>
+    <t>AOF 日志文件以 append-only 模式写入，所以没有任何磁盘寻址的开销，写入性能非常高，而且文件不容易破损，即使文件尾部破损，也很容易修复。</t>
+  </si>
+  <si>
+    <t>AOF 日志文件的命令通过非常可读的方式进行记录，这个特性非常适合做灾难性的误删除的紧急恢复。</t>
+  </si>
+  <si>
+    <t>比如某人不小心用 flushall 命令清空了所有数据</t>
+  </si>
+  <si>
+    <t>只要这个时候后台 rewrite 还没有发生，那么就可以立即拷贝 AOF 文件，将最后一条 flushall 命令给删了</t>
+  </si>
+  <si>
+    <t>AOF 日志文件通常比 RDB 数据快照文件更大</t>
+  </si>
+  <si>
+    <t>RDB 和 AOF 到底该如何选择</t>
+  </si>
+  <si>
+    <t>不要仅仅使用 RDB，因为那样会导致你丢失很多数据（5分钟）</t>
+  </si>
+  <si>
+    <t>也不要仅仅使用 AOF，因为那样有两个问题：</t>
+  </si>
+  <si>
+    <t>第一，你通过 AOF 做冷备，没有 RDB 做冷备来的恢复速度更快；</t>
+  </si>
+  <si>
+    <t>第二，RDB 每次简单粗暴生成数据快照，更加健壮，可以避免 AOF 这种复杂的备份和恢复机制的 bug；</t>
+  </si>
+  <si>
+    <t>redis 支持同时开启开启两种持久化方式，我们可以综合使用 AOF 和 RDB 两种持久化机制，用 AOF 来保证数据不丢失，作为数据恢复的第一选择;</t>
+  </si>
+  <si>
+    <t>用 RDB 来做不同程度的冷备，在 AOF 文件都丢失或损坏不可用的时候，还可以使用 RDB 来进行快速的数据恢复。</t>
+  </si>
+  <si>
+    <t>redis cluster 介绍</t>
+  </si>
+  <si>
+    <t>自动将数据进行分片，每个 master 上放一部分数据</t>
+  </si>
+  <si>
+    <t>提供内置的高可用支持，部分 master 不可用时，还是可以继续工作的</t>
+  </si>
+  <si>
+    <t>分布式寻址算法</t>
+  </si>
+  <si>
+    <t>hash 算法（大量缓存重建）</t>
+  </si>
+  <si>
+    <t>一致性 hash 算法（自动缓存迁移）+ 虚拟节点（自动负载均衡）</t>
+  </si>
+  <si>
+    <t>redis cluster 的 hash slot 算法</t>
+  </si>
+  <si>
+    <t>hash 算法介绍</t>
+  </si>
+  <si>
+    <t>来了一个 key，首先计算 hash 值，然后对节点数取模。</t>
+  </si>
+  <si>
+    <t>然后打在不同的 master 节点上。</t>
+  </si>
+  <si>
+    <t>一旦某一个 master 节点宕机，所有请求过来，都会基于最新的剩余 master 节点数去取模，尝试去取数据。</t>
+  </si>
+  <si>
+    <t>这会导致大部分的请求过来，全部无法拿到有效的缓存，导致大量的流量涌入数据库。</t>
+  </si>
+  <si>
+    <t>一致性 hash 算法</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_21125183/article/details/90019034</t>
+  </si>
+  <si>
+    <t>一致性 hash 算法将整个 hash 值空间组织成一个虚拟的圆环，整个空间按顺时针方向组织，</t>
+  </si>
+  <si>
+    <t>下一步将各个 master 节点（使用服务器的 ip 或主机名）进行 hash。这样就能确定每个节点在其哈希环上的位置。</t>
+  </si>
+  <si>
+    <t>来了一个 key，首先计算 hash 值，并确定此数据在环上的位置，从此位置沿环顺时针“行走”，遇到的第一个 master 节点就是 key 所在位置。</t>
+  </si>
+  <si>
+    <t>在一致性哈希算法中，如果一个节点挂了，受影响的数据仅仅是此节点到环空间前一个节点（沿着逆时针方向行走遇到的第一个节点）之间的数据，其它不受影响。</t>
+  </si>
+  <si>
+    <t>增加一个节点也同理。</t>
+  </si>
+  <si>
+    <t>燃鹅，一致性哈希算法在节点太少时，容易因为节点分布不均匀而造成缓存热点的问题。</t>
+  </si>
+  <si>
+    <t>为了解决这种热点问题，一致性 hash 算法引入了虚拟节点机制，即对每一个节点计算多个 hash，每个计算结果位置都放置一个虚拟节点。</t>
+  </si>
+  <si>
+    <t>这样就实现了数据的均匀分布，负载均衡。</t>
+  </si>
+  <si>
+    <t>redis cluster 的高可用与主备切换原理</t>
+  </si>
+  <si>
+    <t>判断节点宕机</t>
+  </si>
+  <si>
+    <t>如果一个节点认为另外一个节点宕机，那么就是 pfail，主观宕机。</t>
+  </si>
+  <si>
+    <t>如果多个节点都认为另外一个节点宕机了，那么就是 fail，客观宕机，</t>
+  </si>
+  <si>
+    <t>跟哨兵的原理几乎一样，sdown，odown。</t>
+  </si>
+  <si>
+    <t>在 cluster-node-timeout 内，某个节点一直没有返回 pong，那么就被认为 pfail。</t>
+  </si>
+  <si>
+    <t>如果一个节点认为某个节点 pfail 了，那么会在 gossip ping 消息中，ping 给其他节点，</t>
+  </si>
+  <si>
+    <t>如果超过半数的节点都认为 pfail 了，那么就会变成 fail。</t>
+  </si>
+  <si>
+    <t>从节点过滤</t>
+  </si>
+  <si>
+    <t>对宕机的 master node，从其所有的 slave node 中，选择一个切换成 master node。</t>
+  </si>
+  <si>
+    <t>检查每个 slave node 与 master node 断开连接的时间，如果超过了 cluster-node-timeout * cluster-slave-validity-factor，</t>
+  </si>
+  <si>
+    <t>那么就没有资格切换成 master。</t>
+  </si>
+  <si>
+    <t>从节点选举</t>
+  </si>
+  <si>
+    <t>每个从节点，都根据自己对 master 复制数据的 offset，来设置一个选举时间，offset 越大（复制数据越多）的从节点，选举时间越靠前，优先进行选举。</t>
+  </si>
+  <si>
+    <t>所有的 master node 开始 slave 选举投票，给要进行选举的 slave 进行投票，如果大部分 master node（N/2 + 1）都投票给了某个从节点，</t>
+  </si>
+  <si>
+    <t>那么选举通过，那个从节点可以切换成 master。</t>
+  </si>
+  <si>
+    <t>从节点执行主备切换，从节点切换为主节点。</t>
+  </si>
+  <si>
+    <t>缓存雪崩</t>
+  </si>
+  <si>
+    <t>对于系统 A，假设每天高峰期每秒 5000 个请求，本来缓存在高峰期可以扛住每秒 4000 个请求，但是缓存机器意外发生了全盘宕机。</t>
+  </si>
+  <si>
+    <t>缓存挂了，此时 1 秒 5000 个请求全部落数据库，数据库必然扛不住，它会报一下警，然后就挂了</t>
+  </si>
+  <si>
+    <t>缓存雪崩的事前事中事后的解决方案</t>
+  </si>
+  <si>
+    <t>事前：redis 高可用，主从+哨兵，redis cluster，避免全盘崩溃。</t>
+  </si>
+  <si>
+    <t>事中：本地 ehcache 缓存 + hystrix 限流&amp;降级，避免 MySQL 被打死。</t>
+  </si>
+  <si>
+    <t>事后：redis 持久化，一旦重启，自动从磁盘上加载数据，快速恢复缓存数据。</t>
+  </si>
+  <si>
+    <t>缓存穿透</t>
+  </si>
+  <si>
+    <t>举个栗子。数据库 id 是从 1 开始的，结果黑客发过来的请求 id 全部都是负数。这样的话，缓存中不会有，请求每次都“视缓存于无物”，直接查询数据库。</t>
+  </si>
+  <si>
+    <t>这种恶意攻击场景的缓存穿透就会直接把数据库给打死。</t>
+  </si>
+  <si>
+    <t>缓存穿透解决方法</t>
+  </si>
+  <si>
+    <t>每次系统 A 从数据库中只要没查到，就写一个空值到缓存里去，比如 set -999 UNKNOWN。然后设置一个过期时间，这样的话，</t>
+  </si>
+  <si>
+    <t>下次有相同的 key 来访问的时候，在缓存失效之前，都可以直接从缓存中取数据。</t>
+  </si>
+  <si>
+    <t>缓存击穿</t>
+  </si>
+  <si>
+    <t>缓存击穿，就是说某个 key 非常热点，访问非常频繁，处于集中式高并发访问的情况，当这个 key 在失效的瞬间，大量的请求就击穿了缓存，直接请求数据库</t>
+  </si>
+  <si>
+    <t>缓存击穿解决方法</t>
+  </si>
+  <si>
+    <t>若缓存的数据是基本不会发生更新的，则可尝试将该热点数据设置为永不过期。</t>
+  </si>
+  <si>
+    <t>若缓存的数据更新不频繁，且缓存刷新的整个流程耗时较少的情况下，则可以采用基于 redis、zookeeper 等分布式中间件的分布式互斥锁，</t>
+  </si>
+  <si>
+    <t>或者本地互斥锁以保证仅少量的请求能请求数据库并重新构建缓存，其余线程则在锁释放后能访问到新缓存。</t>
+  </si>
+  <si>
+    <t>若缓存的数据更新频繁或者缓存刷新的流程耗时较长的情况下，可以利用定时线程在缓存过期前主动的重新构建缓存或者延后缓存的过期时间，</t>
+  </si>
+  <si>
+    <t>以保证所有的请求能一直访问到对应的缓存。</t>
+  </si>
+  <si>
+    <t>如何保证缓存与数据库的双写一致性？</t>
+  </si>
+  <si>
+    <t>Cache Aside Pattern</t>
+  </si>
+  <si>
+    <t>读的时候，先读缓存，缓存没有的话，就读数据库，然后取出数据后放入缓存，同时返回响应。</t>
+  </si>
+  <si>
+    <t>更新的时候，先更新数据库，然后再删除缓存。</t>
+  </si>
+  <si>
+    <t>为什么是删除缓存，而不是更新缓存？如果更新缓存，在并发写时，可能出现数据不一致。</t>
+  </si>
+  <si>
+    <t>在1和2两个并发写发生时，由于无法保证时序，此时不管先操作缓存还是先操作数据库，都可能出现</t>
+  </si>
+  <si>
+    <t>请求1先操作数据库，请求2后操作数据库</t>
+  </si>
+  <si>
+    <t>请求2先set了缓存，请求1后set了缓存</t>
+  </si>
+  <si>
+    <t>缓存不一致问题及解决方案</t>
+  </si>
+  <si>
+    <t>先更新数据库，再删除缓存。如果删除缓存失败了，那么会导致数据库中是新数据，缓存中是旧数据，数据就出现了不一致。</t>
+  </si>
+  <si>
+    <t>解决思路：先删除缓存，再更新数据库。如果数据库更新失败了，那么数据库中是旧数据，缓存中是空的，那么数据不会不一致。</t>
+  </si>
+  <si>
+    <t>因为读的时候缓存没有，所以去读了数据库中的旧数据，然后更新到缓存中。</t>
+  </si>
+  <si>
+    <t>比较复杂的数据不一致问题分析</t>
+  </si>
+  <si>
+    <t>数据发生了变更，先删除了缓存，然后要去修改数据库，此时还没修改。</t>
+  </si>
+  <si>
+    <t>一个请求过来，去读缓存，发现缓存空了，去查询数据库，查到了修改前的旧数据，放到了缓存中。</t>
+  </si>
+  <si>
+    <t>随后数据变更的程序完成了数据库的修改。完了，数据库和缓存中的数据不一样了...</t>
+  </si>
+  <si>
+    <t>解决方案如下：</t>
+  </si>
+  <si>
+    <t>更新数据的时候，根据数据的唯一标识，将操作路由之后，发送到一个 jvm 内部队列中。</t>
+  </si>
+  <si>
+    <t>读取数据的时候，如果发现数据不在缓存中，那么将重新执行“读取数据+更新缓存”的操作，根据唯一标识路由之后，也发送到同一个 jvm 内部队列中。</t>
+  </si>
+  <si>
+    <t>一个队列对应一个工作线程，每个工作线程串行拿到对应的操作，然后一条一条的执行。</t>
+  </si>
+  <si>
+    <t>这样的话，一个数据变更的操作，先删除缓存，然后再去更新数据库，但是还没完成更新。</t>
+  </si>
+  <si>
+    <t>此时如果一个读请求过来，没有读到缓存，那么可以先将缓存更新的请求发送到队列中，此时会在队列中积压，然后同步等待缓存更新完成。</t>
+  </si>
+  <si>
+    <t>这里有一个优化点，一个队列中，其实多个更新缓存请求串在一起是没意义的，因此可以做过滤</t>
+  </si>
+  <si>
+    <t>redis 的并发竞争问题是什么？</t>
+  </si>
+  <si>
+    <t>就是多客户端同时并发写一个 key，可能本来应该先到的数据后到了，导致数据版本错了；</t>
+  </si>
+  <si>
+    <t>或者是多客户端同时获取一个 key，修改值之后再写回去，只要顺序错了，数据就错了。</t>
+  </si>
+  <si>
+    <t>如何解决这个问题？</t>
+  </si>
+  <si>
+    <t>多个系统实例都去更新某个 key。可以基于 zookeeper 实现分布式锁。</t>
+  </si>
+  <si>
+    <t>每个系统通过 zookeeper 获取分布式锁，确保同一时间，只能有一个系统实例在操作某个 key，别人都不允许读和写。</t>
+  </si>
+  <si>
+    <t>了解 redis 事务的 CAS 方案吗？</t>
+  </si>
+  <si>
+    <t>你要写入缓存的数据，都是从 mysql 里查出来的，都得写入 mysql 中，写入 mysql 中的时候必须保存一个时间戳，从 mysql 查出来的时候，时间戳也查出来。</t>
+  </si>
+  <si>
+    <t>每次要写之前，先判断一下当前这个 value 的时间戳是否比缓存里的 value 的时间戳要新。如果是的话，那么可以写，否则，就不能用旧的数据覆盖新的数据。</t>
   </si>
 </sst>
 </file>
@@ -418,12 +767,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,8 +789,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,106 +804,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,6 +828,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -583,9 +851,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,55 +942,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,43 +960,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,55 +972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,13 +990,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,15 +1138,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -814,11 +1147,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,21 +1225,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -876,172 +1233,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,6 +1391,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1242,6 +1587,189 @@
         <a:xfrm>
           <a:off x="685800" y="8439150"/>
           <a:ext cx="6048375" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="4286250"/>
+          <a:ext cx="7058660" cy="7230110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="847725"/>
+          <a:ext cx="3001010" cy="1838960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="3838575"/>
+          <a:ext cx="3943350" cy="3219450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="1304925"/>
+          <a:ext cx="4514850" cy="3448050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1546,13 +2074,13 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1631,7 +2159,7 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1651,7 +2179,7 @@
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1684,12 +2212,12 @@
   <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1719,15 +2247,15 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1762,7 +2290,7 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1802,7 +2330,7 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2028,13 +2556,13 @@
   <sheetPr/>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2058,890 +2586,890 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2956,8 +3484,293 @@
   <sheetPr/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2967,268 +3780,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" t="s">
-        <v>90</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>94</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>97</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3">
-      <c r="C61" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3">
-      <c r="C62" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3237,18 +3899,548 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I10"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId2" display="https://blog.csdn.net/qq_21125183/article/details/90019034"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/缓存/Redis.xlsx
+++ b/缓存/Redis.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8010" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="25200" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="主从" sheetId="3" r:id="rId3"/>
+    <sheet name="哨兵" sheetId="4" r:id="rId4"/>
+    <sheet name="持久化" sheetId="5" r:id="rId5"/>
+    <sheet name="cluster" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>项目中缓存是如何使用的？为什么要用缓存？</t>
   </si>
@@ -601,6 +601,12 @@
   </si>
   <si>
     <t>从节点执行主备切换，从节点切换为主节点。</t>
+  </si>
+  <si>
+    <t>与哨兵比较</t>
+  </si>
+  <si>
+    <t>整个流程跟哨兵相比，非常类似，所以说，redis cluster 功能强大，直接集成了 replication 和 sentinel 的功能。</t>
   </si>
   <si>
     <t>缓存雪崩</t>
@@ -767,10 +773,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -814,6 +820,80 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -828,21 +908,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -851,23 +916,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,52 +933,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,7 +948,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,13 +990,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,97 +1014,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1038,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,7 +1062,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,19 +1098,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,6 +1153,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1166,46 +1181,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1233,36 +1209,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,123 +1277,120 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1714,7 +1717,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" r:link="rId4"/>
+        <a:blip r:embed="rId3" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1723,6 +1726,90 @@
         <a:xfrm>
           <a:off x="885825" y="3838575"/>
           <a:ext cx="3943350" cy="3219450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="3133725"/>
+          <a:ext cx="4600575" cy="5210175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10115550"/>
+          <a:ext cx="6181725" cy="4781550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2074,17 +2161,17 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2109,7 +2196,7 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2129,7 +2216,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2159,7 +2246,7 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2179,7 +2266,7 @@
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2212,17 +2299,17 @@
   <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2247,15 +2334,15 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="6"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2290,7 +2377,7 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2330,7 +2417,7 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2556,17 +2643,17 @@
   <sheetPr/>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2586,890 +2673,890 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5" t="s">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5" t="s">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5" t="s">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3484,17 +3571,17 @@
   <sheetPr/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3519,7 +3606,7 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3564,7 +3651,7 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3624,7 +3711,7 @@
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3649,7 +3736,7 @@
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3689,7 +3776,7 @@
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3704,7 +3791,7 @@
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3770,7 +3857,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3779,7 +3866,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3902,10 +3989,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3979,7 +4066,7 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4106,6 +4193,16 @@
     <row r="88" spans="3:3">
       <c r="C88" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4123,8 +4220,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4133,108 +4230,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>193</v>
+      <c r="A1" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4248,8 +4345,8 @@
   <sheetPr/>
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4258,118 +4355,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>214</v>
+      <c r="A1" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4384,8 +4481,8 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -4394,48 +4491,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>237</v>
+      <c r="A1" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/缓存/Redis.xlsx
+++ b/缓存/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="284">
   <si>
     <t>项目中缓存是如何使用的？为什么要用缓存？</t>
   </si>
@@ -420,10 +420,16 @@
     <t>redis 持久化的两种方式</t>
   </si>
   <si>
-    <t>RDB：RDB 持久化机制，是对 redis 中的数据执行周期性的持久化。</t>
-  </si>
-  <si>
-    <t>AOF：AOF 机制对每条写入命令作为日志，以 append-only 的模式写入一个日志文件中，在 redis 重启的时候，可以通过回放 AOF 日志中的写入指令来重新构建整个数据集。</t>
+    <t>RDB：是 Redis 默认的持久化方案。在指定的时间间隔内，执行指定次数的写操作，则会将内存中的数据写入到磁盘中。</t>
+  </si>
+  <si>
+    <t>即在指定目录下生成一个dump.rdb文件。Redis 重启会通过加载dump.rdb文件恢复数据。</t>
+  </si>
+  <si>
+    <t>AOF：它的出现是为了弥补RDB的不足（数据的不一致性），所以它采用日志的形式来记录每个写操作，并追加到文件中。</t>
+  </si>
+  <si>
+    <t>Redis 重启的会根据日志文件的内容将写指令从前到后执行一次以完成数据的恢复工作。</t>
   </si>
   <si>
     <t>RDB优点</t>
@@ -489,12 +495,388 @@
     <t>redis cluster 介绍</t>
   </si>
   <si>
-    <t>自动将数据进行分片，每个 master 上放一部分数据</t>
+    <r>
+      <t>自动将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据进行分片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，每个 master 上放一</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部分数据</t>
+    </r>
   </si>
   <si>
     <t>提供内置的高可用支持，部分 master 不可用时，还是可以继续工作的</t>
   </si>
   <si>
+    <r>
+      <t>在 redis cluster 架构下，每个 redis 要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放开两个端口号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，比如一个是 6379，另外一个就是 加1w 的端口号，比如 16379。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16379 端口号是用来进行节点间通信的，也就是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cluster bus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的东西，cluster bus 的通信，用来进行故障检测、配置更新、故障转移授权。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cluster bus 用了另外一种二进制的协议，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gossip 协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，用于节点间进行高效的数据交换，占用更少的网络带宽和处理时间。</t>
+    </r>
+  </si>
+  <si>
+    <t>节点间的内部通信机制</t>
+  </si>
+  <si>
+    <t>集群元数据的维护有两种方式：集中式、Gossip 协议。redis cluster 节点间采用 gossip 协议进行通信。</t>
+  </si>
+  <si>
+    <t>集中式</t>
+  </si>
+  <si>
+    <t>是将集群元数据（节点信息、故障等等）几种存储在某个节点上。</t>
+  </si>
+  <si>
+    <t>集中式元数据集中存储的一个典型代表，就是大数据领域的 storm。</t>
+  </si>
+  <si>
+    <t>它是分布式的大数据实时计算引擎，是集中式的元数据存储的结构，底层基于 zookeeper（分布式协调的中间件）对所有元数据进行存储维护。</t>
+  </si>
+  <si>
+    <t>gossip 协议</t>
+  </si>
+  <si>
+    <t>所有节点都持有一份元数据，不同的节点如果出现了元数据的变更，就不断将元数据发送给其它的节点，让其它节点也进行元数据的变更。</t>
+  </si>
+  <si>
+    <r>
+      <t>集中式的好处在于，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元数据的读取和更新，时效性非常好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，一旦元数据出现了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变更，就立即更新到集中式的存储中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其它节点读取的时候就可以感知到</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>不好在于，所有的元数据的更新</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压力全部集中在一个地方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可能会导致元数据的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存储有压力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gossip 好处在于，元数据的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新比较分散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，不是集中在一个地方，更新请求会陆陆续续打到所有节点上去更新，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>降低了压力</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>不好在于，元数据的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新有延时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可能导致</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集群中的一些操作会有一些滞后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>gossip 协议包含多种消息，包含 ping,pong,meet,fail 等等。</t>
+  </si>
+  <si>
+    <t>meet：某个节点发送 meet 给新加入的节点，让新节点加入集群中，然后新节点就会开始与其它节点进行通信。</t>
+  </si>
+  <si>
+    <t>其实内部就是发送了一个 gossip meet 消息给新加入的节点，通知那个节点去加入我们的集群。</t>
+  </si>
+  <si>
+    <t>ping：每个节点都会频繁给其它节点发送 ping，其中包含自己的状态还有自己维护的集群元数据，互相通过 ping 交换元数据。</t>
+  </si>
+  <si>
+    <t>pong：返回 ping 和 meeet，包含自己的状态和其它信息，也用于信息广播和更新。</t>
+  </si>
+  <si>
+    <t>fail：某个节点判断另一个节点 fail 之后，就发送 fail 给其它节点，通知其它节点说，某个节点宕机啦。</t>
+  </si>
+  <si>
+    <t>ping 消息深入</t>
+  </si>
+  <si>
+    <t>ping 时要携带一些元数据，如果很频繁，可能会加重网络负担。</t>
+  </si>
+  <si>
+    <t>每个节点每秒会执行 10 次 ping，每次会选择 5 个最久没有通信的其它节点。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当然如果发现某个节点通信延时达到了 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cluster_node_timeout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 2，那么立即发送 ping，避免数据交换延时过长，落后的时间太长了。</t>
+    </r>
+  </si>
+  <si>
+    <t>比如说，两个节点之间都 10 分钟没有交换数据了，那么整个集群处于严重的元数据不一致的情况，就会有问题。</t>
+  </si>
+  <si>
+    <t>所以 cluster_node_timeout 可以调节，如果调得比较大，那么会降低 ping 的频率。</t>
+  </si>
+  <si>
+    <t>每次 ping，会带上自己节点的信息，还有就是带上 1/10 其它节点的信息，发送出去，进行交换。至少包含 3 个其它节点的信息，最多包含 总节点数减 2 个其它节点的信息。</t>
+  </si>
+  <si>
     <t>分布式寻址算法</t>
   </si>
   <si>
@@ -543,13 +925,54 @@
     <t>增加一个节点也同理。</t>
   </si>
   <si>
+    <t>一致性Hash算法对于节点的增减都只需重定位环空间中的一小部分数据，具有较好的容错性和可扩展性。</t>
+  </si>
+  <si>
+    <t>Hash环的数据倾斜问题</t>
+  </si>
+  <si>
     <t>燃鹅，一致性哈希算法在节点太少时，容易因为节点分布不均匀而造成缓存热点的问题。</t>
   </si>
   <si>
-    <t>为了解决这种热点问题，一致性 hash 算法引入了虚拟节点机制，即对每一个节点计算多个 hash，每个计算结果位置都放置一个虚拟节点。</t>
+    <r>
+      <t>为了解决这种热点问题，一致性 hash 算法引入了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虚拟节点机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，即对每一个节点计算多个 hash，每个计算结果位置都放置一个虚拟节点。</t>
+    </r>
   </si>
   <si>
     <t>这样就实现了数据的均匀分布，负载均衡。</t>
+  </si>
+  <si>
+    <t>例如，可以为每台服务器计算三个虚拟节点，于是可以分别计算 “Node A#1”、“Node A#2”、“Node A#3”、“Node B#1”、“Node B#2”、“Node B#3”的哈希值</t>
+  </si>
+  <si>
+    <t>，于是形成六个虚拟节点：</t>
+  </si>
+  <si>
+    <t>同时数据定位算法不变，只是多了一步虚拟节点到实际节点的映射，例如定位到“Node A#1”、“Node A#2”、“Node A#3”三个虚拟节点的数据均定位到Node A上。</t>
+  </si>
+  <si>
+    <t>这样就解决了服务节点少时数据倾斜的问题。</t>
   </si>
   <si>
     <t>redis cluster 的高可用与主备切换原理</t>
@@ -773,10 +1196,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -797,7 +1220,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,9 +1233,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,8 +1294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,13 +1310,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -863,23 +1331,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,24 +1346,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,22 +1356,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,25 +1371,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,37 +1443,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,103 +1539,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,37 +1565,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,6 +1606,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1225,17 +1654,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,159 +1667,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1610,33 +2036,117 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200660</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="4286250"/>
-          <a:ext cx="7058660" cy="7230110"/>
+          <a:off x="1390650" y="2333625"/>
+          <a:ext cx="4733925" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="4800600"/>
+          <a:ext cx="4038600" cy="2676525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="16630650"/>
+          <a:ext cx="4229100" cy="4391025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2334,12 +2844,12 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
@@ -2643,8 +3153,8 @@
   <sheetPr/>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2673,890 +3183,890 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3571,8 +4081,8 @@
   <sheetPr/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3854,10 +4364,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3875,109 +4385,119 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3989,10 +4509,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4002,212 +4522,387 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>155</v>
+      <c r="B2" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4">
-      <c r="D77" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4">
-      <c r="D82" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3">
-      <c r="C85" t="s">
-        <v>189</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="87" spans="4:4">
-      <c r="D87" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3">
-      <c r="C88" t="s">
-        <v>192</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3">
-      <c r="C91" t="s">
-        <v>194</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId2" display="https://blog.csdn.net/qq_21125183/article/details/90019034"/>
+    <hyperlink ref="B81" r:id="rId2" display="https://blog.csdn.net/qq_21125183/article/details/90019034"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4231,107 +4926,107 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4356,117 +5051,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4492,47 +5187,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/缓存/Redis.xlsx
+++ b/缓存/Redis.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="5"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="主从" sheetId="3" r:id="rId3"/>
     <sheet name="哨兵" sheetId="4" r:id="rId4"/>
-    <sheet name="持久化" sheetId="5" r:id="rId5"/>
-    <sheet name="cluster" sheetId="6" r:id="rId6"/>
+    <sheet name="cluster" sheetId="6" r:id="rId5"/>
+    <sheet name="持久化" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="285">
   <si>
     <t>项目中缓存是如何使用的？为什么要用缓存？</t>
   </si>
@@ -75,7 +75,51 @@
     <t>redis 内部使用文件事件处理器 file event handler，这个文件事件处理器是单线程的，所以 redis 才叫做单线程的模型。</t>
   </si>
   <si>
-    <t>它采用 IO 多路复用机制同时监听多个 socket，将产生事件的 socket 压入内存队列中，</t>
+    <r>
+      <t xml:space="preserve">它采用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IO 多路复用机制同时监听多个 socket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，将产生事件的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> socket 压入内存队列中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
   </si>
   <si>
     <t>事件分派器根据 socket 上的事件类型来选择对应的事件处理器进行处理</t>
@@ -258,6 +302,310 @@
     <t>接着 master 会将内存中缓存的写命令发送到 slave，slave 也会同步这些数据。</t>
   </si>
   <si>
+    <t>redis 哨兵主备切换的数据丢失问题</t>
+  </si>
+  <si>
+    <t>异步复制导致的数据丢失</t>
+  </si>
+  <si>
+    <r>
+      <t>因为 master-&gt;slave 的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复制是异步的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所以可能有部分数据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还没复制到 slave，master 就宕机了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，此时这部分数据就丢失了</t>
+    </r>
+  </si>
+  <si>
+    <t>脑裂导致的数据丢失</t>
+  </si>
+  <si>
+    <t>脑裂，也就是说，某个 master 所在机器突然脱离了正常的网络，跟其他 slave 机器不能连接，但是实际上 master 还运行着。</t>
+  </si>
+  <si>
+    <t>此时哨兵可能就会认为 master 宕机了，然后开启选举，将其他 slave 切换成了 master。这个时候，集群里就会有两个 master ，也就是所谓的脑裂。</t>
+  </si>
+  <si>
+    <t>此时虽然某个 slave 被切换成了 master，但是可能 client 还没来得及切换到新的 master，还继续向旧 master 写数据。</t>
+  </si>
+  <si>
+    <t>因此旧 master 再次恢复的时候，会被作为一个 slave 挂到新的 master 上去，自己的数据会清空，重新从新的 master 复制数据。</t>
+  </si>
+  <si>
+    <t>而新的 master 并没有后来 client 写入的数据，因此，这部分数据也就丢失了。</t>
+  </si>
+  <si>
+    <t>数据丢失问题的解决方案</t>
+  </si>
+  <si>
+    <t>进行如下配置：</t>
+  </si>
+  <si>
+    <t>min-slaves-to-write 1</t>
+  </si>
+  <si>
+    <t>min-slaves-max-lag 10</t>
+  </si>
+  <si>
+    <r>
+      <t>表示，要求</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>至少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有 1 个 slave，数据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复制和同步的延迟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能超过 10 秒。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果说一旦所有的 slave，数据复制和同步的延迟都超</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过了 10 秒钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那么这个时候，master 就</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不会再接收任何请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了。</t>
+    </r>
+  </si>
+  <si>
+    <t>减少异步复制数据的丢失</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">有了 min-slaves-max-lag 这个配置，就可以确保说，一旦 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slave 复制数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ack 延时太长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就认为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可能 master 宕机后损失的数据太多了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>那么就</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拒绝写请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这样可以把 master 宕机时由于部分数据未同步到 slave 导致的数据丢失</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>降低的可控范围内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>减少脑裂的数据丢失</t>
+  </si>
+  <si>
+    <t>如果一个 master 出现了脑裂，跟其他 slave 丢了连接，那么上面两个配置可以确保说，如果不能继续给指定数量的 slave 发送数据，</t>
+  </si>
+  <si>
+    <t>而且 slave 超过 10 秒没有给自己 ack 消息，那么就直接拒绝客户端的写请求。因此在脑裂场景下，最多就丢失 10 秒的数据。</t>
+  </si>
+  <si>
     <t>哨兵功能</t>
   </si>
   <si>
@@ -273,69 +621,6 @@
     <t>配置中心：如果故障转移发生了，通知 client 客户端新的 master 地址。</t>
   </si>
   <si>
-    <t>redis 哨兵主备切换的数据丢失问题</t>
-  </si>
-  <si>
-    <t>异步复制导致的数据丢失</t>
-  </si>
-  <si>
-    <t>因为 master-&gt;slave 的复制是异步的，所以可能有部分数据还没复制到 slave，master 就宕机了，此时这部分数据就丢失了</t>
-  </si>
-  <si>
-    <t>脑裂导致的数据丢失</t>
-  </si>
-  <si>
-    <t>脑裂，也就是说，某个 master 所在机器突然脱离了正常的网络，跟其他 slave 机器不能连接，但是实际上 master 还运行着。</t>
-  </si>
-  <si>
-    <t>此时哨兵可能就会认为 master 宕机了，然后开启选举，将其他 slave 切换成了 master。这个时候，集群里就会有两个 master ，也就是所谓的脑裂。</t>
-  </si>
-  <si>
-    <t>此时虽然某个 slave 被切换成了 master，但是可能 client 还没来得及切换到新的 master，还继续向旧 master 写数据。</t>
-  </si>
-  <si>
-    <t>因此旧 master 再次恢复的时候，会被作为一个 slave 挂到新的 master 上去，自己的数据会清空，重新从新的 master 复制数据。</t>
-  </si>
-  <si>
-    <t>而新的 master 并没有后来 client 写入的数据，因此，这部分数据也就丢失了。</t>
-  </si>
-  <si>
-    <t>数据丢失问题的解决方案</t>
-  </si>
-  <si>
-    <t>进行如下配置：</t>
-  </si>
-  <si>
-    <t>min-slaves-to-write 1</t>
-  </si>
-  <si>
-    <t>min-slaves-max-lag 10</t>
-  </si>
-  <si>
-    <t>表示，要求至少有 1 个 slave，数据复制和同步的延迟不能超过 10 秒。</t>
-  </si>
-  <si>
-    <t>如果说一旦所有的 slave，数据复制和同步的延迟都超过了 10 秒钟，那么这个时候，master 就不会再接收任何请求了。</t>
-  </si>
-  <si>
-    <t>减少异步复制数据的丢失</t>
-  </si>
-  <si>
-    <t>有了 min-slaves-max-lag 这个配置，就可以确保说，一旦 slave 复制数据和 ack 延时太长，就认为可能 master 宕机后损失的数据太多了，</t>
-  </si>
-  <si>
-    <t>那么就拒绝写请求，这样可以把 master 宕机时由于部分数据未同步到 slave 导致的数据丢失降低的可控范围内。</t>
-  </si>
-  <si>
-    <t>减少脑裂的数据丢失</t>
-  </si>
-  <si>
-    <t>如果一个 master 出现了脑裂，跟其他 slave 丢了连接，那么上面两个配置可以确保说，如果不能继续给指定数量的 slave 发送数据，</t>
-  </si>
-  <si>
-    <t>而且 slave 超过 10 秒没有给自己 ack 消息，那么就直接拒绝客户端的写请求。因此在脑裂场景下，最多就丢失 10 秒的数据。</t>
-  </si>
-  <si>
     <t>sdown 和 odown 转换机制</t>
   </si>
   <si>
@@ -354,22 +639,178 @@
     <t>哨兵集群的自动发现机制</t>
   </si>
   <si>
-    <t>哨兵互相之间的发现，是通过 redis 的 pub/sub 系统实现的，每个哨兵都会往 __sentinel__:hello 这个 channel 里发送一个消息，</t>
-  </si>
-  <si>
-    <t>这时候所有其他哨兵都可以消费到这个消息，并感知到其他的哨兵的存在。</t>
-  </si>
-  <si>
-    <t>每隔两秒钟，每个哨兵都会往自己监控的某个 master+slaves 对应的 __sentinel__:hello channel 里发送一个消息，</t>
-  </si>
-  <si>
-    <t>内容是自己的 host、ip 和 runid 还有对这个 master 的监控配置。</t>
+    <r>
+      <t>哨兵互相之间的发现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，是通过 redis 的 pub/sub 系统实现的，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个哨兵都会往 __sentinel__:hello 这个 channel 里发送一个消息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这时候所有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其他哨兵都可以消费到这个消息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>感知到其他的哨兵的存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>哨兵和节点之间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每隔两秒钟，每个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哨兵都会往自己监控的某个 master+slaves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 对应的 __sentinel__:hello channel 里发送一个消息，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">内容是自己的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>host、ip 和 runid 还有对这个 master 的监控配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>每个哨兵也会去监听自己监控的每个 master+slaves 对应的 __sentinel__:hello channel，</t>
   </si>
   <si>
-    <t>然后去感知到同样在监听这个 master+slaves 的其他哨兵的存在。</t>
+    <r>
+      <t>然后去感知到同样在监听这个 master+slaves 的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其他哨兵的存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>每个哨兵还会跟其他哨兵交换对 master 的监控配置，互相进行监控配置的同步。</t>
@@ -417,16 +858,922 @@
     <t>如果上面两个条件都相同，那么选择一个 run id 比较小的那个 slave。</t>
   </si>
   <si>
+    <t>redis cluster 介绍</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据进行分片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，每个 master 上放一</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部分数据</t>
+    </r>
+  </si>
+  <si>
+    <t>提供内置的高可用支持，部分 master 不可用时，还是可以继续工作的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在 redis cluster 架构下，每个 redis 要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放开两个端口号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，比如一个是 6379，另外一个就是 加1w 的端口号，比如 16379。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">16379 端口号是用来进行节点间通信的，也就是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cluster bus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的东西，cluster bus 的通信，用来进行故障检测、配置更新、故障转移授权。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cluster bus 用了另外一种二进制的协议，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gossip 协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，用于节点间进行高效的数据交换，占用更少的网络带宽和处理时间。</t>
+    </r>
+  </si>
+  <si>
+    <t>节点间的内部通信机制</t>
+  </si>
+  <si>
+    <t>集群元数据的维护有两种方式：集中式、Gossip 协议。redis cluster 节点间采用 gossip 协议进行通信。</t>
+  </si>
+  <si>
+    <t>集中式</t>
+  </si>
+  <si>
+    <t>是将集群元数据（节点信息、故障等等）几种存储在某个节点上。</t>
+  </si>
+  <si>
+    <t>集中式元数据集中存储的一个典型代表，就是大数据领域的 storm。</t>
+  </si>
+  <si>
+    <t>它是分布式的大数据实时计算引擎，是集中式的元数据存储的结构，底层基于 zookeeper（分布式协调的中间件）对所有元数据进行存储维护。</t>
+  </si>
+  <si>
+    <t>gossip 协议</t>
+  </si>
+  <si>
+    <t>所有节点都持有一份元数据，不同的节点如果出现了元数据的变更，就不断将元数据发送给其它的节点，让其它节点也进行元数据的变更。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集中式的好处在于，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元数据的读取和更新，时效性非常好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，一旦元数据出现了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变更，就立即更新到集中式的存储中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其它节点读取的时候就可以感知到</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不好在于，所有的元数据的更新</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压力全部集中在一个地方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可能会导致元数据的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存储有压力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gossip 好处在于，元数据的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新比较分散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，不是集中在一个地方，更新请求会陆陆续续打到所有节点上去更新，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>降低了压力</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不好在于，元数据的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新有延时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可能导致</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集群中的一些操作会有一些滞后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>gossip 协议包含多种消息，包含 ping,pong,meet,fail 等等。</t>
+  </si>
+  <si>
+    <t>meet：某个节点发送 meet 给新加入的节点，让新节点加入集群中，然后新节点就会开始与其它节点进行通信。</t>
+  </si>
+  <si>
+    <t>其实内部就是发送了一个 gossip meet 消息给新加入的节点，通知那个节点去加入我们的集群。</t>
+  </si>
+  <si>
+    <t>ping：每个节点都会频繁给其它节点发送 ping，其中包含自己的状态还有自己维护的集群元数据，互相通过 ping 交换元数据。</t>
+  </si>
+  <si>
+    <t>pong：返回 ping 和 meeet，包含自己的状态和其它信息，也用于信息广播和更新。</t>
+  </si>
+  <si>
+    <t>fail：某个节点判断另一个节点 fail 之后，就发送 fail 给其它节点，通知其它节点说，某个节点宕机啦。</t>
+  </si>
+  <si>
+    <t>ping 消息深入</t>
+  </si>
+  <si>
+    <t>ping 时要携带一些元数据，如果很频繁，可能会加重网络负担。</t>
+  </si>
+  <si>
+    <r>
+      <t>每个节点每秒会执行 10 次 ping，每次会选择 5 个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最久没有通信的其它节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当然如果发现某个节点通信延时达到了 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cluster_node_timeout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 2，那么立即发送 ping，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>避免数据交换延时过长，落后的时间太长了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">比如说，两个节点之间都 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 分钟没有交换数据了，那么整个集群处于严重的元数据不一致的情况，就会有问题。</t>
+    </r>
+  </si>
+  <si>
+    <t>所以 cluster_node_timeout 可以调节，如果调得比较大，那么会降低 ping 的频率。</t>
+  </si>
+  <si>
+    <t>每次 ping，会带上自己节点的信息，还有就是带上 1/10 其它节点的信息，发送出去，进行交换。至少包含 3 个其它节点的信息，最多包含 总节点数减 2 个其它节点的信息。</t>
+  </si>
+  <si>
+    <t>分布式寻址算法</t>
+  </si>
+  <si>
+    <t>hash 算法（大量缓存重建）</t>
+  </si>
+  <si>
+    <t>一致性 hash 算法（自动缓存迁移）+ 虚拟节点（自动负载均衡）</t>
+  </si>
+  <si>
+    <t>redis cluster 的 hash slot 算法</t>
+  </si>
+  <si>
+    <t>hash 算法介绍</t>
+  </si>
+  <si>
+    <t>来了一个 key，首先计算 hash 值，然后对节点数取模。</t>
+  </si>
+  <si>
+    <t>然后打在不同的 master 节点上。</t>
+  </si>
+  <si>
+    <t>一旦某一个 master 节点宕机，所有请求过来，都会基于最新的剩余 master 节点数去取模，尝试去取数据。</t>
+  </si>
+  <si>
+    <t>这会导致大部分的请求过来，全部无法拿到有效的缓存，导致大量的流量涌入数据库。</t>
+  </si>
+  <si>
+    <t>一致性 hash 算法</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_21125183/article/details/90019034</t>
+  </si>
+  <si>
+    <t>一致性 hash 算法将整个 hash 值空间组织成一个虚拟的圆环，整个空间按顺时针方向组织，</t>
+  </si>
+  <si>
+    <t>下一步将各个 master 节点（使用服务器的 ip 或主机名）进行 hash。这样就能确定每个节点在其哈希环上的位置。</t>
+  </si>
+  <si>
+    <t>来了一个 key，首先计算 hash 值，并确定此数据在环上的位置，从此位置沿环顺时针“行走”，遇到的第一个 master 节点就是 key 所在位置。</t>
+  </si>
+  <si>
+    <t>在一致性哈希算法中，如果一个节点挂了，受影响的数据仅仅是此节点到环空间前一个节点（沿着逆时针方向行走遇到的第一个节点）之间的数据，其它不受影响。</t>
+  </si>
+  <si>
+    <t>增加一个节点也同理。</t>
+  </si>
+  <si>
+    <t>一致性Hash算法对于节点的增减都只需重定位环空间中的一小部分数据，具有较好的容错性和可扩展性。</t>
+  </si>
+  <si>
+    <t>Hash环的数据倾斜问题</t>
+  </si>
+  <si>
+    <t>燃鹅，一致性哈希算法在节点太少时，容易因为节点分布不均匀而造成缓存热点的问题。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为了解决这种热点问题，一致性 hash 算法引入了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虚拟节点机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，即对每一个节点计算多个 hash，每个计算结果位置都放置一个虚拟节点。</t>
+    </r>
+  </si>
+  <si>
+    <t>这样就实现了数据的均匀分布，负载均衡。</t>
+  </si>
+  <si>
+    <t>例如，可以为每台服务器计算三个虚拟节点，于是可以分别计算 “Node A#1”、“Node A#2”、“Node A#3”、“Node B#1”、“Node B#2”、“Node B#3”的哈希值</t>
+  </si>
+  <si>
+    <t>，于是形成六个虚拟节点：</t>
+  </si>
+  <si>
+    <t>同时数据定位算法不变，只是多了一步虚拟节点到实际节点的映射，例如定位到“Node A#1”、“Node A#2”、“Node A#3”三个虚拟节点的数据均定位到Node A上。</t>
+  </si>
+  <si>
+    <t>这样就解决了服务节点少时数据倾斜的问题。</t>
+  </si>
+  <si>
+    <t>redis cluster 的高可用与主备切换原理</t>
+  </si>
+  <si>
+    <t>判断节点宕机</t>
+  </si>
+  <si>
+    <t>如果一个节点认为另外一个节点宕机，那么就是 pfail，主观宕机。</t>
+  </si>
+  <si>
+    <t>如果多个节点都认为另外一个节点宕机了，那么就是 fail，客观宕机，</t>
+  </si>
+  <si>
+    <t>跟哨兵的原理几乎一样，sdown，odown。</t>
+  </si>
+  <si>
+    <t>在 cluster-node-timeout 内，某个节点一直没有返回 pong，那么就被认为 pfail。</t>
+  </si>
+  <si>
+    <t>如果一个节点认为某个节点 pfail 了，那么会在 gossip ping 消息中，ping 给其他节点，</t>
+  </si>
+  <si>
+    <t>如果超过半数的节点都认为 pfail 了，那么就会变成 fail。</t>
+  </si>
+  <si>
+    <t>从节点过滤</t>
+  </si>
+  <si>
+    <t>对宕机的 master node，从其所有的 slave node 中，选择一个切换成 master node。</t>
+  </si>
+  <si>
+    <r>
+      <t>检查每个 slave node 与 master node 断开连接的时间，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果超过了 cluster-node-timeout * cluster-slave-validity-factor，</t>
+    </r>
+  </si>
+  <si>
+    <t>那么就没有资格切换成 master。</t>
+  </si>
+  <si>
+    <t>cluster-slave-validity-factor：用于限定slave于master的失联时长的倍数</t>
+  </si>
+  <si>
+    <t>从节点选举</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每个从节点，都根据自己对 master </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复制数据的 offset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，来设置一个选举时间，offset 越大（复制数据越多）的从节点，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选举时间越靠前，优先进行选举</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>所有的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> master node 开始 slave 选举投票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，给要进行选举的 slave 进行投票，如果大部分 master node（N/2 + 1）都投票给了某个从节点，</t>
+    </r>
+  </si>
+  <si>
+    <t>那么选举通过，那个从节点可以切换成 master。</t>
+  </si>
+  <si>
+    <t>从节点执行主备切换，从节点切换为主节点。</t>
+  </si>
+  <si>
+    <t>与哨兵比较</t>
+  </si>
+  <si>
+    <t>整个流程跟哨兵相比，非常类似，所以说，redis cluster 功能强大，直接集成了 replication 和 sentinel 的功能。</t>
+  </si>
+  <si>
     <t>redis 持久化的两种方式</t>
   </si>
   <si>
-    <t>RDB：是 Redis 默认的持久化方案。在指定的时间间隔内，执行指定次数的写操作，则会将内存中的数据写入到磁盘中。</t>
-  </si>
-  <si>
-    <t>即在指定目录下生成一个dump.rdb文件。Redis 重启会通过加载dump.rdb文件恢复数据。</t>
-  </si>
-  <si>
-    <t>AOF：它的出现是为了弥补RDB的不足（数据的不一致性），所以它采用日志的形式来记录每个写操作，并追加到文件中。</t>
+    <r>
+      <t>RDB：是 Redis 默认的持久化方案。在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指定的时间间隔内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执行指定次数的写操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，则会将内存中的数据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写入到磁盘中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>即在指定目录下</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成一个dump.rdb文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。Redis </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重启会通过加载dump.rdb文件恢复数据。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AOF：它的出现是为了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弥补RDB的不足（数据的不一致性）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所以它</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采用日志的形式来记录每个写操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加到文件中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>Redis 重启的会根据日志文件的内容将写指令从前到后执行一次以完成数据的恢复工作。</t>
@@ -438,7 +1785,41 @@
     <t>RDB 对 redis 对外提供的读写服务，影响非常小</t>
   </si>
   <si>
-    <t>RDB 会生成多个数据文件，每个数据文件都代表了某一个时刻中 redis 的数据，这种多个数据文件的方式，非常适合做冷备</t>
+    <r>
+      <t>RDB 会生成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多个数据文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，每个数据文件都代表了某一个时刻中 redis 的数据，这种多个数据文件的方式，非常</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>适合做冷备</t>
+    </r>
   </si>
   <si>
     <t>RDB比AOF恢复快</t>
@@ -447,16 +1828,127 @@
     <t>如果想要在 redis 故障时，尽可能少的丢失数据，那么 RDB 没有 AOF 好</t>
   </si>
   <si>
-    <t>一般来说，RDB 数据快照文件，都是每隔 5 分钟，或者更长时间生成一次，这个时候就得接受一旦 redis 进程宕机，那么会丢失最近 5 分钟的数据</t>
+    <r>
+      <t>一般来说，RDB 数据快照文件，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都是每隔 5 分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，或者更长时间生成一次，这个时候就得接受一旦 redis 进程宕机，那么会丢失最近 5 分钟的数据</t>
+    </r>
   </si>
   <si>
     <t>AOF 优缺点</t>
   </si>
   <si>
-    <t>AOF 可以更好的保护数据不丢失，一般 AOF 会每隔 1 秒，通过一个后台线程执行一次fsync操作，最多丢失 1 秒钟的数据。</t>
-  </si>
-  <si>
-    <t>AOF 日志文件以 append-only 模式写入，所以没有任何磁盘寻址的开销，写入性能非常高，而且文件不容易破损，即使文件尾部破损，也很容易修复。</t>
+    <r>
+      <t>AOF 可以更好的保护数据不丢失，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一般 AOF 会每隔 1 秒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，通过一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后台线程执行一次fsync操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，最多丢失 1 秒钟的数据。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AOF 日志文件以 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>append-only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 模式写入，所以没有任何磁盘寻址的开销，写入性能非常高，而且</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件不容易破损，即使文件尾部破损，也很容易修复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>AOF 日志文件的命令通过非常可读的方式进行记录，这个特性非常适合做灾难性的误删除的紧急恢复。</t>
@@ -490,546 +1982,6 @@
   </si>
   <si>
     <t>用 RDB 来做不同程度的冷备，在 AOF 文件都丢失或损坏不可用的时候，还可以使用 RDB 来进行快速的数据恢复。</t>
-  </si>
-  <si>
-    <t>redis cluster 介绍</t>
-  </si>
-  <si>
-    <r>
-      <t>自动将</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据进行分片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，每个 master 上放一</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>部分数据</t>
-    </r>
-  </si>
-  <si>
-    <t>提供内置的高可用支持，部分 master 不可用时，还是可以继续工作的</t>
-  </si>
-  <si>
-    <r>
-      <t>在 redis cluster 架构下，每个 redis 要</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>放开两个端口号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，比如一个是 6379，另外一个就是 加1w 的端口号，比如 16379。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16379 端口号是用来进行节点间通信的，也就是 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cluster bus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 的东西，cluster bus 的通信，用来进行故障检测、配置更新、故障转移授权。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>cluster bus 用了另外一种二进制的协议，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gossip 协议</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，用于节点间进行高效的数据交换，占用更少的网络带宽和处理时间。</t>
-    </r>
-  </si>
-  <si>
-    <t>节点间的内部通信机制</t>
-  </si>
-  <si>
-    <t>集群元数据的维护有两种方式：集中式、Gossip 协议。redis cluster 节点间采用 gossip 协议进行通信。</t>
-  </si>
-  <si>
-    <t>集中式</t>
-  </si>
-  <si>
-    <t>是将集群元数据（节点信息、故障等等）几种存储在某个节点上。</t>
-  </si>
-  <si>
-    <t>集中式元数据集中存储的一个典型代表，就是大数据领域的 storm。</t>
-  </si>
-  <si>
-    <t>它是分布式的大数据实时计算引擎，是集中式的元数据存储的结构，底层基于 zookeeper（分布式协调的中间件）对所有元数据进行存储维护。</t>
-  </si>
-  <si>
-    <t>gossip 协议</t>
-  </si>
-  <si>
-    <t>所有节点都持有一份元数据，不同的节点如果出现了元数据的变更，就不断将元数据发送给其它的节点，让其它节点也进行元数据的变更。</t>
-  </si>
-  <si>
-    <r>
-      <t>集中式的好处在于，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元数据的读取和更新，时效性非常好</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，一旦元数据出现了</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>变更，就立即更新到集中式的存储中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，其它节点读取的时候就可以感知到</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>不好在于，所有的元数据的更新</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>压力全部集中在一个地方</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，可能会导致元数据的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>存储有压力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gossip 好处在于，元数据的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>更新比较分散</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，不是集中在一个地方，更新请求会陆陆续续打到所有节点上去更新，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>降低了压力</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>不好在于，元数据的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>更新有延时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，可能导致</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>集群中的一些操作会有一些滞后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>gossip 协议包含多种消息，包含 ping,pong,meet,fail 等等。</t>
-  </si>
-  <si>
-    <t>meet：某个节点发送 meet 给新加入的节点，让新节点加入集群中，然后新节点就会开始与其它节点进行通信。</t>
-  </si>
-  <si>
-    <t>其实内部就是发送了一个 gossip meet 消息给新加入的节点，通知那个节点去加入我们的集群。</t>
-  </si>
-  <si>
-    <t>ping：每个节点都会频繁给其它节点发送 ping，其中包含自己的状态还有自己维护的集群元数据，互相通过 ping 交换元数据。</t>
-  </si>
-  <si>
-    <t>pong：返回 ping 和 meeet，包含自己的状态和其它信息，也用于信息广播和更新。</t>
-  </si>
-  <si>
-    <t>fail：某个节点判断另一个节点 fail 之后，就发送 fail 给其它节点，通知其它节点说，某个节点宕机啦。</t>
-  </si>
-  <si>
-    <t>ping 消息深入</t>
-  </si>
-  <si>
-    <t>ping 时要携带一些元数据，如果很频繁，可能会加重网络负担。</t>
-  </si>
-  <si>
-    <t>每个节点每秒会执行 10 次 ping，每次会选择 5 个最久没有通信的其它节点。</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">当然如果发现某个节点通信延时达到了 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cluster_node_timeout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / 2，那么立即发送 ping，避免数据交换延时过长，落后的时间太长了。</t>
-    </r>
-  </si>
-  <si>
-    <t>比如说，两个节点之间都 10 分钟没有交换数据了，那么整个集群处于严重的元数据不一致的情况，就会有问题。</t>
-  </si>
-  <si>
-    <t>所以 cluster_node_timeout 可以调节，如果调得比较大，那么会降低 ping 的频率。</t>
-  </si>
-  <si>
-    <t>每次 ping，会带上自己节点的信息，还有就是带上 1/10 其它节点的信息，发送出去，进行交换。至少包含 3 个其它节点的信息，最多包含 总节点数减 2 个其它节点的信息。</t>
-  </si>
-  <si>
-    <t>分布式寻址算法</t>
-  </si>
-  <si>
-    <t>hash 算法（大量缓存重建）</t>
-  </si>
-  <si>
-    <t>一致性 hash 算法（自动缓存迁移）+ 虚拟节点（自动负载均衡）</t>
-  </si>
-  <si>
-    <t>redis cluster 的 hash slot 算法</t>
-  </si>
-  <si>
-    <t>hash 算法介绍</t>
-  </si>
-  <si>
-    <t>来了一个 key，首先计算 hash 值，然后对节点数取模。</t>
-  </si>
-  <si>
-    <t>然后打在不同的 master 节点上。</t>
-  </si>
-  <si>
-    <t>一旦某一个 master 节点宕机，所有请求过来，都会基于最新的剩余 master 节点数去取模，尝试去取数据。</t>
-  </si>
-  <si>
-    <t>这会导致大部分的请求过来，全部无法拿到有效的缓存，导致大量的流量涌入数据库。</t>
-  </si>
-  <si>
-    <t>一致性 hash 算法</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_21125183/article/details/90019034</t>
-  </si>
-  <si>
-    <t>一致性 hash 算法将整个 hash 值空间组织成一个虚拟的圆环，整个空间按顺时针方向组织，</t>
-  </si>
-  <si>
-    <t>下一步将各个 master 节点（使用服务器的 ip 或主机名）进行 hash。这样就能确定每个节点在其哈希环上的位置。</t>
-  </si>
-  <si>
-    <t>来了一个 key，首先计算 hash 值，并确定此数据在环上的位置，从此位置沿环顺时针“行走”，遇到的第一个 master 节点就是 key 所在位置。</t>
-  </si>
-  <si>
-    <t>在一致性哈希算法中，如果一个节点挂了，受影响的数据仅仅是此节点到环空间前一个节点（沿着逆时针方向行走遇到的第一个节点）之间的数据，其它不受影响。</t>
-  </si>
-  <si>
-    <t>增加一个节点也同理。</t>
-  </si>
-  <si>
-    <t>一致性Hash算法对于节点的增减都只需重定位环空间中的一小部分数据，具有较好的容错性和可扩展性。</t>
-  </si>
-  <si>
-    <t>Hash环的数据倾斜问题</t>
-  </si>
-  <si>
-    <t>燃鹅，一致性哈希算法在节点太少时，容易因为节点分布不均匀而造成缓存热点的问题。</t>
-  </si>
-  <si>
-    <r>
-      <t>为了解决这种热点问题，一致性 hash 算法引入了</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>虚拟节点机制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，即对每一个节点计算多个 hash，每个计算结果位置都放置一个虚拟节点。</t>
-    </r>
-  </si>
-  <si>
-    <t>这样就实现了数据的均匀分布，负载均衡。</t>
-  </si>
-  <si>
-    <t>例如，可以为每台服务器计算三个虚拟节点，于是可以分别计算 “Node A#1”、“Node A#2”、“Node A#3”、“Node B#1”、“Node B#2”、“Node B#3”的哈希值</t>
-  </si>
-  <si>
-    <t>，于是形成六个虚拟节点：</t>
-  </si>
-  <si>
-    <t>同时数据定位算法不变，只是多了一步虚拟节点到实际节点的映射，例如定位到“Node A#1”、“Node A#2”、“Node A#3”三个虚拟节点的数据均定位到Node A上。</t>
-  </si>
-  <si>
-    <t>这样就解决了服务节点少时数据倾斜的问题。</t>
-  </si>
-  <si>
-    <t>redis cluster 的高可用与主备切换原理</t>
-  </si>
-  <si>
-    <t>判断节点宕机</t>
-  </si>
-  <si>
-    <t>如果一个节点认为另外一个节点宕机，那么就是 pfail，主观宕机。</t>
-  </si>
-  <si>
-    <t>如果多个节点都认为另外一个节点宕机了，那么就是 fail，客观宕机，</t>
-  </si>
-  <si>
-    <t>跟哨兵的原理几乎一样，sdown，odown。</t>
-  </si>
-  <si>
-    <t>在 cluster-node-timeout 内，某个节点一直没有返回 pong，那么就被认为 pfail。</t>
-  </si>
-  <si>
-    <t>如果一个节点认为某个节点 pfail 了，那么会在 gossip ping 消息中，ping 给其他节点，</t>
-  </si>
-  <si>
-    <t>如果超过半数的节点都认为 pfail 了，那么就会变成 fail。</t>
-  </si>
-  <si>
-    <t>从节点过滤</t>
-  </si>
-  <si>
-    <t>对宕机的 master node，从其所有的 slave node 中，选择一个切换成 master node。</t>
-  </si>
-  <si>
-    <t>检查每个 slave node 与 master node 断开连接的时间，如果超过了 cluster-node-timeout * cluster-slave-validity-factor，</t>
-  </si>
-  <si>
-    <t>那么就没有资格切换成 master。</t>
-  </si>
-  <si>
-    <t>从节点选举</t>
-  </si>
-  <si>
-    <t>每个从节点，都根据自己对 master 复制数据的 offset，来设置一个选举时间，offset 越大（复制数据越多）的从节点，选举时间越靠前，优先进行选举。</t>
-  </si>
-  <si>
-    <t>所有的 master node 开始 slave 选举投票，给要进行选举的 slave 进行投票，如果大部分 master node（N/2 + 1）都投票给了某个从节点，</t>
-  </si>
-  <si>
-    <t>那么选举通过，那个从节点可以切换成 master。</t>
-  </si>
-  <si>
-    <t>从节点执行主备切换，从节点切换为主节点。</t>
-  </si>
-  <si>
-    <t>与哨兵比较</t>
-  </si>
-  <si>
-    <t>整个流程跟哨兵相比，非常类似，所以说，redis cluster 功能强大，直接集成了 replication 和 sentinel 的功能。</t>
   </si>
   <si>
     <t>缓存雪崩</t>
@@ -1196,9 +2148,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1227,22 +2179,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,6 +2194,36 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1265,7 +2232,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1278,9 +2252,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1288,58 +2261,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1356,7 +2277,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1371,7 +2323,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,13 +2395,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,25 +2449,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,127 +2497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,6 +2514,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1584,22 +2599,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1614,54 +2614,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1670,10 +2622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1682,19 +2634,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1703,112 +2655,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2147,6 +3099,48 @@
         <a:xfrm>
           <a:off x="771525" y="16630650"/>
           <a:ext cx="4229100" cy="4391025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="24688800"/>
+          <a:ext cx="5276850" cy="4105275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2671,8 +3665,8 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2766,7 +3760,7 @@
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2808,7 +3802,7 @@
   <sheetPr/>
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -3151,10 +4145,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:J6"/>
+      <selection activeCell="A63" sqref="$A63:$XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4026,47 +5020,110 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4079,10 +5136,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4092,266 +5149,161 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" t="s">
-        <v>85</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>93</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>95</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>97</v>
+      <c r="B21" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>106</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
-      <c r="C60" t="s">
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
-      <c r="C61" t="s">
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
-      <c r="C62" t="s">
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4364,10 +5316,419 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D171"/>
+  <sheetViews>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="L130" sqref="L130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B81" r:id="rId2" display="https://blog.csdn.net/qq_21125183/article/details/90019034"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4377,536 +5738,132 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>132</v>
+      <c r="B2" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" t="s">
-        <v>133</v>
+      <c r="C3" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>134</v>
+      <c r="B4" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>138</v>
+      <c r="B8" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>139</v>
+      <c r="B9" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" t="s">
-        <v>141</v>
+      <c r="C11" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>143</v>
+      <c r="B13" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>144</v>
+      <c r="B14" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D147"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="M93" sqref="M93"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3">
-      <c r="C62" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3">
-      <c r="C63" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3">
-      <c r="C92" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3">
-      <c r="C94" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3">
-      <c r="C96" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3">
-      <c r="C128" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3">
-      <c r="C129" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3">
-      <c r="C130" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3">
-      <c r="C131" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="132" spans="3:3">
-      <c r="C132" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="133" spans="4:4">
-      <c r="D133" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3">
-      <c r="C136" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3">
-      <c r="C137" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="138" spans="4:4">
-      <c r="D138" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="141" spans="3:3">
-      <c r="C141" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="142" spans="3:3">
-      <c r="C142" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="143" spans="4:4">
-      <c r="D143" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="144" spans="3:3">
-      <c r="C144" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="147" spans="3:3">
-      <c r="C147" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B81" r:id="rId2" display="https://blog.csdn.net/qq_21125183/article/details/90019034"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4926,107 +5883,107 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5051,117 +6008,117 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5187,47 +6144,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/缓存/Redis.xlsx
+++ b/缓存/Redis.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="866" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="过期策略，淘汰机制" sheetId="2" r:id="rId2"/>
     <sheet name="主从" sheetId="3" r:id="rId3"/>
     <sheet name="哨兵" sheetId="4" r:id="rId4"/>
     <sheet name="cluster" sheetId="6" r:id="rId5"/>
@@ -76,6 +76,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">它采用 </t>
     </r>
     <r>
@@ -309,6 +316,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>因为 master-&gt;slave 的</t>
     </r>
     <r>
@@ -386,6 +400,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>表示，要求</t>
     </r>
     <r>
@@ -433,6 +454,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果说一旦所有的 slave，数据复制和同步的延迟都超</t>
     </r>
     <r>
@@ -483,6 +511,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">有了 min-slaves-max-lag 这个配置，就可以确保说，一旦 </t>
     </r>
     <r>
@@ -551,6 +586,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>那么就</t>
     </r>
     <r>
@@ -640,6 +682,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>哨兵互相之间的发现</t>
     </r>
     <r>
@@ -676,6 +726,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这时候所有</t>
     </r>
     <r>
@@ -723,6 +780,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>哨兵和节点之间</t>
     </r>
     <r>
@@ -759,6 +824,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">内容是自己的 </t>
     </r>
     <r>
@@ -788,6 +860,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>然后去感知到同样在监听这个 master+slaves 的</t>
     </r>
     <r>
@@ -1262,6 +1341,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每个节点每秒会执行 10 次 ping，每次会选择 5 个</t>
     </r>
     <r>
@@ -1288,6 +1374,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">当然如果发现某个节点通信延时达到了 </t>
     </r>
     <r>
@@ -1335,6 +1428,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">比如说，两个节点之间都 </t>
     </r>
     <r>
@@ -1353,7 +1453,51 @@
     <t>所以 cluster_node_timeout 可以调节，如果调得比较大，那么会降低 ping 的频率。</t>
   </si>
   <si>
-    <t>每次 ping，会带上自己节点的信息，还有就是带上 1/10 其它节点的信息，发送出去，进行交换。至少包含 3 个其它节点的信息，最多包含 总节点数减 2 个其它节点的信息。</t>
+    <r>
+      <t>每次 ping，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会带上自己节点的信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，还有就是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>带上 1/10 其它节点的信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，发送出去，进行交换。至少包含 3 个其它节点的信息，最多包含 总节点数减 2 个其它节点的信息。</t>
+    </r>
   </si>
   <si>
     <t>分布式寻址算法</t>
@@ -1371,7 +1515,51 @@
     <t>hash 算法介绍</t>
   </si>
   <si>
-    <t>来了一个 key，首先计算 hash 值，然后对节点数取模。</t>
+    <r>
+      <t xml:space="preserve">来了一个 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key，首先计算 hash 值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对节点数取模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>然后打在不同的 master 节点上。</t>
@@ -1389,13 +1577,114 @@
     <t>https://blog.csdn.net/qq_21125183/article/details/90019034</t>
   </si>
   <si>
-    <t>一致性 hash 算法将整个 hash 值空间组织成一个虚拟的圆环，整个空间按顺时针方向组织，</t>
-  </si>
-  <si>
-    <t>下一步将各个 master 节点（使用服务器的 ip 或主机名）进行 hash。这样就能确定每个节点在其哈希环上的位置。</t>
-  </si>
-  <si>
-    <t>来了一个 key，首先计算 hash 值，并确定此数据在环上的位置，从此位置沿环顺时针“行走”，遇到的第一个 master 节点就是 key 所在位置。</t>
+    <r>
+      <t>一致性 hash 算法将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整个 hash 值空间组织成一个虚拟的圆环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，整个空间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按顺时针方向组织</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>下一步将各个 master 节点（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用服务器的 ip 或主机名）进行 hash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。这样就能确定</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个节点在其哈希环上的位置。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>来了一个 key，首先计算 hash 值，并确定此数据在环上的位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>置，从此位置沿环</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺时针“行走”，遇到的第一个 master 节点就是 key 所在位置。</t>
+    </r>
   </si>
   <si>
     <t>在一致性哈希算法中，如果一个节点挂了，受影响的数据仅仅是此节点到环空间前一个节点（沿着逆时针方向行走遇到的第一个节点）之间的数据，其它不受影响。</t>
@@ -1492,6 +1781,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>检查每个 slave node 与 master node 断开连接的时间，</t>
     </r>
     <r>
@@ -1516,6 +1813,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">每个从节点，都根据自己对 master </t>
     </r>
     <r>
@@ -1563,6 +1867,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>所有的</t>
     </r>
     <r>
@@ -1604,6 +1915,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>RDB：是 Redis 默认的持久化方案。在</t>
     </r>
     <r>
@@ -1672,6 +1990,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>即在指定目录下</t>
     </r>
     <r>
@@ -1709,6 +2034,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>AOF：它的出现是为了</t>
     </r>
     <r>
@@ -1786,6 +2118,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>RDB 会生成</t>
     </r>
     <r>
@@ -1829,6 +2168,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>一般来说，RDB 数据快照文件，</t>
     </r>
     <r>
@@ -1858,6 +2204,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>AOF 可以更好的保护数据不丢失，</t>
     </r>
     <r>
@@ -1905,6 +2258,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">AOF 日志文件以 </t>
     </r>
     <r>
@@ -2148,9 +2508,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2179,59 +2539,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2246,14 +2553,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2275,24 +2597,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2307,10 +2644,33 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2323,7 +2683,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2335,7 +2731,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2347,7 +2785,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2359,7 +2815,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2377,55 +2839,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2437,73 +2851,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2517,20 +2877,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2550,17 +2907,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2580,6 +2951,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2594,26 +2974,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2622,10 +2982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2634,19 +2994,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2655,112 +3015,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3665,8 +4025,8 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3802,7 +4162,7 @@
   <sheetPr/>
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -4147,7 +4507,7 @@
   <sheetPr/>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A63" sqref="$A63:$XFD86"/>
     </sheetView>
   </sheetViews>
@@ -5138,7 +5498,7 @@
   <sheetPr/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -5318,8 +5678,8 @@
   <sheetPr/>
   <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="L130" sqref="L130"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5483,7 +5843,7 @@
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5513,7 +5873,7 @@
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5543,17 +5903,17 @@
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5727,7 +6087,7 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -5872,8 +6232,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5997,7 +6357,7 @@
   <sheetPr/>
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>

--- a/缓存/Redis.xlsx
+++ b/缓存/Redis.xlsx
@@ -213,7 +213,30 @@
     <t>noeviction: 当内存不足以容纳新写入数据时，新写入操作会报错，这个一般没人用吧，实在是太恶心了。</t>
   </si>
   <si>
-    <t>allkeys-lru：当内存不足以容纳新写入数据时，在键空间中，移除最近最少使用的 key（这个是最常用的）。</t>
+    <r>
+      <t>allkeys-lru：当内存不足以容纳新写入数据时，在键空间中，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移除最近最少使用的 key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（这个是最常用的）。</t>
+    </r>
   </si>
   <si>
     <t>allkeys-random：当内存不足以容纳新写入数据时，在键空间中，随机移除某个 key，这个一般没人用吧，为啥要随机，肯定是把最近最少使用的 key 给干掉啊。</t>
@@ -1454,6 +1477,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每次 ping，</t>
     </r>
     <r>
@@ -1516,6 +1546,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">来了一个 </t>
     </r>
     <r>
@@ -1578,6 +1615,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>一致性 hash 算法将</t>
     </r>
     <r>
@@ -1625,6 +1669,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>下一步将各个 master 节点（</t>
     </r>
     <r>
@@ -1662,6 +1713,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>来了一个 key，首先计算 hash 值，并确定此数据在环上的位</t>
     </r>
     <r>
@@ -1781,14 +1840,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>检查每个 slave node 与 master node 断开连接的时间，</t>
     </r>
     <r>
@@ -1867,13 +1918,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>所有的</t>
     </r>
     <r>
@@ -1895,7 +1939,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，给要进行选举的 slave 进行投票，如果大部分 master node（N/2 + 1）都投票给了某个从节点，</t>
+      <t xml:space="preserve">，给要进行选举的 slave 进行投票，如果大部分 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>master node（N/2 + 1）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都投票给了某个从节点，</t>
     </r>
   </si>
   <si>
@@ -2317,7 +2382,7 @@
     <t>比如某人不小心用 flushall 命令清空了所有数据</t>
   </si>
   <si>
-    <t>只要这个时候后台 rewrite 还没有发生，那么就可以立即拷贝 AOF 文件，将最后一条 flushall 命令给删了</t>
+    <t>只要这个时候后台 rewrite 还没有发生，那么就可以立即拷贝 AOF 文件，将最后一条 flushall 命令给删了，然后覆盖原AOF文件</t>
   </si>
   <si>
     <t>AOF 日志文件通常比 RDB 数据快照文件更大</t>
@@ -2395,13 +2460,79 @@
     <t>若缓存的数据是基本不会发生更新的，则可尝试将该热点数据设置为永不过期。</t>
   </si>
   <si>
-    <t>若缓存的数据更新不频繁，且缓存刷新的整个流程耗时较少的情况下，则可以采用基于 redis、zookeeper 等分布式中间件的分布式互斥锁，</t>
+    <r>
+      <t>若缓存的数据更新不频繁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，且缓存刷新的整个流程耗时较少的情况下，则可以采用基于 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>redis、zookeeper 等分布式中间件的分布式互斥锁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
   </si>
   <si>
     <t>或者本地互斥锁以保证仅少量的请求能请求数据库并重新构建缓存，其余线程则在锁释放后能访问到新缓存。</t>
   </si>
   <si>
-    <t>若缓存的数据更新频繁或者缓存刷新的流程耗时较长的情况下，可以利用定时线程在缓存过期前主动的重新构建缓存或者延后缓存的过期时间，</t>
+    <r>
+      <t>若缓存的数据更新频繁或者缓存刷新的流程耗时较长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的情况下，可以利用定时线程在缓存</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过期前主动的重新构建缓存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或者延后缓存的过期时间，</t>
+    </r>
   </si>
   <si>
     <t>以保证所有的请求能一直访问到对应的缓存。</t>
@@ -2538,44 +2669,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2589,16 +2685,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2606,28 +2695,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2635,7 +2715,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2652,15 +2731,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2673,6 +2752,58 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2683,7 +2814,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2695,7 +2862,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2707,79 +2970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2797,73 +2988,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2874,21 +3005,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2903,35 +3019,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2951,11 +3038,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2974,6 +3067,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2982,10 +3113,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2994,19 +3125,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3015,112 +3146,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4025,8 +4156,8 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4162,8 +4293,8 @@
   <sheetPr/>
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4291,7 +4422,7 @@
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4507,8 +4638,8 @@
   <sheetPr/>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A63" sqref="$A63:$XFD86"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5436,12 +5567,12 @@
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5498,8 +5629,8 @@
   <sheetPr/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5678,8 +5809,8 @@
   <sheetPr/>
   <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="M150" sqref="M150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5978,7 +6109,7 @@
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6013,7 +6144,7 @@
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6038,7 +6169,7 @@
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" t="s">
+      <c r="B140" s="1" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6088,7 +6219,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6232,8 +6363,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6327,7 +6458,7 @@
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6337,7 +6468,7 @@
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>251</v>
       </c>
     </row>

--- a/缓存/Redis.xlsx
+++ b/缓存/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="866" activeTab="4"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="866"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4156,8 +4156,8 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4638,8 +4638,8 @@
   <sheetPr/>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5629,7 +5629,7 @@
   <sheetPr/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -5809,8 +5809,8 @@
   <sheetPr/>
   <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="M150" sqref="M150"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="M173" sqref="M173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6218,7 +6218,7 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -6363,7 +6363,7 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -6488,7 +6488,7 @@
   <sheetPr/>
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
@@ -6625,7 +6625,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/缓存/Redis.xlsx
+++ b/缓存/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="866"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="866" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,9 @@
     <sheet name="哨兵" sheetId="4" r:id="rId4"/>
     <sheet name="cluster" sheetId="6" r:id="rId5"/>
     <sheet name="持久化" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="雪崩，穿透，击穿" sheetId="7" r:id="rId7"/>
+    <sheet name="双写不一致" sheetId="8" r:id="rId8"/>
+    <sheet name="并发竞争" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -214,6 +214,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>allkeys-lru：当内存不足以容纳新写入数据时，在键空间中，</t>
     </r>
     <r>
@@ -1840,6 +1847,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>检查每个 slave node 与 master node 断开连接的时间，</t>
     </r>
     <r>
@@ -1918,6 +1933,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>所有的</t>
     </r>
     <r>
@@ -2461,6 +2483,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>若缓存的数据更新不频繁</t>
     </r>
     <r>
@@ -2500,6 +2530,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>若缓存的数据更新频繁或者缓存刷新的流程耗时较长</t>
     </r>
     <r>
@@ -2639,9 +2677,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2670,10 +2708,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2686,8 +2724,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2701,8 +2746,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2716,37 +2769,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2762,7 +2792,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2777,29 +2837,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2814,13 +2852,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2832,7 +2870,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2844,55 +2900,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2904,19 +2942,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2934,13 +2966,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2952,25 +2984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2982,7 +3002,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2994,7 +3032,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3005,21 +3043,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3034,6 +3057,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3077,20 +3118,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3113,10 +3151,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3125,19 +3163,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3146,112 +3184,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4156,8 +4194,8 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4293,8 +4331,8 @@
   <sheetPr/>
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6363,7 +6401,7 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -6489,7 +6527,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6624,7 +6662,7 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>

--- a/缓存/Redis.xlsx
+++ b/缓存/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="866" activeTab="8"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="866"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4194,8 +4194,8 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4332,7 +4332,7 @@
   <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6256,7 +6256,7 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -6662,7 +6662,7 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>

--- a/缓存/Redis.xlsx
+++ b/缓存/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="866"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="866" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
     <t>redis 都有哪些数据类型？</t>
   </si>
   <si>
-    <t>string</t>
+    <t>string（长度512）</t>
   </si>
   <si>
     <t>hash</t>
@@ -2677,9 +2677,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2707,11 +2707,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2723,8 +2722,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2733,6 +2761,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2754,75 +2789,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2837,9 +2806,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2852,7 +2852,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2864,25 +2924,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2894,13 +2948,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2912,13 +2984,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2930,25 +3014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2960,79 +3026,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3043,6 +3043,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3063,48 +3126,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3117,32 +3143,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3151,10 +3151,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3163,19 +3163,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3184,112 +3184,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4194,7 +4194,7 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -4331,8 +4331,8 @@
   <sheetPr/>
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/缓存/Redis.xlsx
+++ b/缓存/Redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="866" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="866" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="雪崩，穿透，击穿" sheetId="7" r:id="rId7"/>
     <sheet name="双写不一致" sheetId="8" r:id="rId8"/>
     <sheet name="并发竞争" sheetId="9" r:id="rId9"/>
+    <sheet name="Redis多线程" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2678,9 +2679,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2708,7 +2709,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2722,30 +2759,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2761,13 +2792,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2789,9 +2813,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2805,41 +2836,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2852,7 +2853,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2864,19 +2919,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2888,25 +2949,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2918,19 +2967,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2942,61 +2991,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3014,25 +3015,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3050,7 +3051,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3070,15 +3095,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3090,6 +3106,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3108,41 +3144,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3151,10 +3152,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3163,19 +3164,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3184,112 +3185,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4194,7 +4195,7 @@
   <sheetPr/>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -4326,13 +4327,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
